--- a/jupyter_notebooks/file/input/example_1/network.xlsx
+++ b/jupyter_notebooks/file/input/example_1/network.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\test\file\input\test_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\jupyter_notebooks\file\input\example_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A612DECC-3485-46A7-86C1-02763A9FAD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4921A94-0EEA-44E9-9250-EE16640ACD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>slack</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -2899,7 +2902,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3582,7 +3585,7 @@
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="V2" sqref="V2:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3706,7 +3709,7 @@
         <v>106</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -3729,7 +3732,7 @@
         <v>106</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -3752,7 +3755,7 @@
         <v>106</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -3775,7 +3778,7 @@
         <v>106</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -3798,7 +3801,7 @@
         <v>106</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -3821,7 +3824,7 @@
         <v>106</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -4244,7 +4247,7 @@
       </c>
       <c r="P2">
         <f ca="1">RANDBETWEEN(0,0.8*simulation!$C$5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4364,7 +4367,7 @@
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(0,0.8*simulation!$C$5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -4394,7 +4397,7 @@
       </c>
       <c r="P7">
         <f ca="1">RANDBETWEEN(0,0.8*simulation!$C$5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4484,7 +4487,7 @@
       </c>
       <c r="P10">
         <f ca="1">RANDBETWEEN(0,0.8*simulation!$C$5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4514,7 +4517,7 @@
       </c>
       <c r="P11">
         <f ca="1">RANDBETWEEN(0,0.8*simulation!$C$5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4604,7 +4607,7 @@
       </c>
       <c r="P14">
         <f ca="1">RANDBETWEEN(0,0.8*simulation!$C$5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4634,7 +4637,7 @@
       </c>
       <c r="P15">
         <f ca="1">RANDBETWEEN(0,0.8*simulation!$C$5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4664,7 +4667,7 @@
       </c>
       <c r="P16">
         <f ca="1">RANDBETWEEN(0,0.8*simulation!$C$5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4694,7 +4697,7 @@
       </c>
       <c r="P17">
         <f ca="1">RANDBETWEEN(0,0.8*simulation!$C$5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4724,7 +4727,7 @@
       </c>
       <c r="P18">
         <f ca="1">RANDBETWEEN(0,0.8*simulation!$C$5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
